--- a/src/test/java/org/hbrs/se1/ss24/uebung1/test/TestCase.xlsx
+++ b/src/test/java/org/hbrs/se1/ss24/uebung1/test/TestCase.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t xml:space="preserve">Simple Test Suite</t>
   </si>
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Testobjekt:</t>
   </si>
   <si>
-    <t xml:space="preserve">RomanT</t>
+    <t xml:space="preserve">RomanNumberTransformer</t>
   </si>
   <si>
     <t xml:space="preserve">Parameter</t>
@@ -109,16 +109,22 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMCMXCIX</t>
+  </si>
+  <si>
     <t xml:space="preserve">neg</t>
   </si>
   <si>
-    <t xml:space="preserve">Negativer int</t>
+    <t xml:space="preserve">-Integer.MAX_VALUE</t>
   </si>
   <si>
     <t xml:space="preserve">Die Zahl befindet sich ausserhalb des maximalen Wertebereichs [1:3000] </t>
   </si>
   <si>
-    <t xml:space="preserve">positiver int über 3000</t>
+    <t xml:space="preserve">Die Zahl befindet sich ausserhalb des maximalenWertebereichs [1:3000]</t>
   </si>
   <si>
     <t xml:space="preserve">...</t>
@@ -136,7 +142,19 @@
     <t xml:space="preserve">Repräsentant</t>
   </si>
   <si>
+    <t xml:space="preserve">Werte 1 bis 3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unter 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Über 3000</t>
+  </si>
+  <si>
     <t xml:space="preserve">Separate Werte:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0, 1, 3000, 3001</t>
   </si>
 </sst>
 </file>
@@ -206,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -285,6 +303,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -310,6 +335,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -338,7 +370,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -399,23 +431,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -423,11 +451,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -443,8 +475,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -696,191 +736,216 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C3:F23"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="40.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="25.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="10.58"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="B6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="14" t="n">
+        <v>2999</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9" t="s">
+      <c r="B7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="30.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C7" s="10" t="s">
+      <c r="B8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="14" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="14" t="n">
+        <v>2999</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="15" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="25.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="15" t="s">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="27" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="26"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="26"/>
-    </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="26"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="14"/>
-    </row>
+      <c r="A20" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="28"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
+  <mergeCells count="4">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
